--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/37_Hatay_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/37_Hatay_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E380A82C-14D5-449C-A8E2-620451092077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B3A4B40-3433-4126-BBEB-E858F6EB827D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{6513AB95-D35A-4DBD-B091-34372508620E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="669" xr2:uid="{1E33F3B3-066A-43A6-AD66-3BE813BBA038}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A13AE1F8-A2B9-4677-8AD6-FF2788F28902}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{029EC70E-E775-45BC-ACF9-16F173102030}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{6BF3451C-985D-4604-9424-B5B058D6A869}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{6825E28C-BFBD-4CB2-BF1E-3D6D5CD8104B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{B539ED17-73A9-488B-8E49-F50D05A8AF2D}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{31E24EDF-5433-4F43-B0DB-29FC74C09FD4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{70291620-4E6A-4CE3-8F9C-F4100EC1534F}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{46FDD3D8-F59D-4149-9C2D-07235838ADB6}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C2D34B2A-E052-4C58-8739-8597CB32DB65}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{550C013B-064C-40C4-80D5-2280C1456860}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{29BFF71F-E5D1-4F22-84A2-58BDF66081FE}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{86C97E0A-C0FB-4C8F-9B3F-60B9BA46095F}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{1270B5F1-06FF-456F-A5E7-37052A207313}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{94A07F23-E5F5-4631-A6CF-30D8CD69A859}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83528529-5357-4F4A-AF64-2F3EAAED183C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1EBA06-A501-476D-8FB7-BF36D4E3F78C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2588,7 +2588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF374EB-FA01-4B93-8696-9CB140F4DF4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86313127-0428-48F4-9907-C8B71095B888}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3896,7 +3896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3BEE3F-7AB2-4DE8-AD74-240E6D201C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E496C2C-D107-48CD-A5E0-E53CCA0B7D3F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5206,7 +5206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{837CE5ED-2996-429C-8B2B-0C76A1BE5390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF30C13-60FF-45F5-933F-8E3FF97543BF}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6502,7 +6502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB12B738-9661-4693-B1E9-722B18BBF469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02717F17-46B2-4875-825C-3598F010A9E3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7813,7 +7813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B5AF33-57D6-4D38-BFD9-A923B3EBBD13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF7761C-66A7-4970-8BC9-780AEDF64D74}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9122,7 +9122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1B8AE7-D1B5-40B5-AF38-031418092EEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B318ABC2-82D2-403F-A351-CECC07B93477}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10431,7 +10431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FB1A14-8217-40E6-8694-35AA177D8229}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36920993-CEAF-45B6-B206-464473A2AE32}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11736,7 +11736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6E5410-85DF-463F-A169-3C2976DC81C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E4D01-26FF-4DED-9D7B-72FBD41B7C7A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13043,7 +13043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6671E2DF-E792-4EFB-A0AB-7BCF9CC6027C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B672B17-C957-4043-8591-E737BB0E8BEE}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14352,7 +14352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9854124C-C7F3-4420-BDBC-06C4587AF292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A70B37-3F2A-46EF-ACB7-8D97CE10BDB9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15653,7 +15653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15043150-2DBE-48E7-B324-7625B1DA702E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7973E804-7B13-4B5F-86DA-6050E97AF6BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
